--- a/public/template/employee/Employee Master Data - Template.xlsx
+++ b/public/template/employee/Employee Master Data - Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\vueportal\public\template\employee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA6C660-8162-4922-BA60-A35451FDEEF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35555B24-0BC6-430A-AF11-69FE1BA951DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>employee_code</t>
   </si>
@@ -51,9 +51,6 @@
     <t>department</t>
   </si>
   <si>
-    <t>job_description</t>
-  </si>
-  <si>
     <t>date_employed</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
   </si>
   <si>
     <t>FudgeRayms@gmail.com</t>
-  </si>
-  <si>
-    <t>CCS</t>
   </si>
   <si>
     <t>MALE</t>
@@ -516,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,23 +526,23 @@
     <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -560,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -572,7 +566,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -581,10 +575,10 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -602,92 +596,86 @@
         <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="2">
+      <c r="W2" s="2">
         <v>1</v>
       </c>
     </row>

--- a/public/template/employee/Employee Master Data - Template.xlsx
+++ b/public/template/employee/Employee Master Data - Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\vueportal\public\template\employee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35555B24-0BC6-430A-AF11-69FE1BA951DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FBE8E1-DFB6-4594-AB54-B6BB64F8298F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="55">
   <si>
     <t>employee_code</t>
   </si>
@@ -157,6 +157,39 @@
   </si>
   <si>
     <t>Inventory</t>
+  </si>
+  <si>
+    <t>employee002</t>
+  </si>
+  <si>
+    <t>employee003</t>
+  </si>
+  <si>
+    <t>employee004</t>
+  </si>
+  <si>
+    <t>employee005</t>
+  </si>
+  <si>
+    <t>employee006</t>
+  </si>
+  <si>
+    <t>employee007</t>
+  </si>
+  <si>
+    <t>employee008</t>
+  </si>
+  <si>
+    <t>employee009</t>
+  </si>
+  <si>
+    <t>employee010</t>
+  </si>
+  <si>
+    <t>employee011</t>
+  </si>
+  <si>
+    <t>employee012</t>
   </si>
 </sst>
 </file>
@@ -167,7 +200,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;;&quot; (&quot;#,##0.00&quot;)&quot;;&quot; -&quot;#&quot; &quot;;@&quot; &quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +224,12 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -510,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,11 +718,804 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{9BA579EC-BC8A-4AE7-BA50-B83370FD85D9}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{C9C35F83-C644-4D48-8D44-E9E61D92DFE7}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{A5CA90DE-3CCC-4DCD-A652-6F7D7A9BFDB5}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{CA18BF3F-49CB-45C1-BACE-9CDE7E453895}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{BE1D572A-DB33-4B21-AB25-4CFBCAED0461}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{122F25C1-7577-4A9B-9C44-6401CC48AFBA}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{28E84745-4384-4674-8621-E018CB986064}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{9E1209BA-97F7-4FA5-A043-7256E601163F}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{DEB0AAE1-318B-439B-9F5E-FDA67662352D}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{7FB68E1E-0BFD-4EBF-A026-E90B2AA3A2CA}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{E778C054-237C-422C-BED2-E2068014B0B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
--- a/public/template/employee/Employee Master Data - Template.xlsx
+++ b/public/template/employee/Employee Master Data - Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\vueportal\public\template\employee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B25C04-9ABF-445F-A552-9E965814ACDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BC7D45-01D7-44A7-B55B-9C8E75ED0A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>employee_code</t>
   </si>
@@ -160,6 +160,48 @@
   </si>
   <si>
     <t>Management System Supervisor</t>
+  </si>
+  <si>
+    <t>school_year</t>
+  </si>
+  <si>
+    <t>2009-2012</t>
+  </si>
+  <si>
+    <t>employment_type</t>
+  </si>
+  <si>
+    <t>regularization_date</t>
+  </si>
+  <si>
+    <t>last_day_of_work</t>
+  </si>
+  <si>
+    <t>reason_of_resignation</t>
+  </si>
+  <si>
+    <t>coe_is_issued</t>
+  </si>
+  <si>
+    <t>last_pay_is_issued</t>
+  </si>
+  <si>
+    <t>compliance</t>
+  </si>
+  <si>
+    <t>Probitionary</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>To Work Abroad</t>
+  </si>
+  <si>
+    <t>Render 30 Days</t>
   </si>
 </sst>
 </file>
@@ -223,7 +265,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -238,6 +280,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Comma" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -519,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,10 +586,18 @@
     <col min="17" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="22" max="22" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,16 +659,40 @@
         <v>31</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -678,13 +753,37 @@
       <c r="T2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="2">
+      <c r="X2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -694,6 +793,6 @@
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/template/employee/Employee Master Data - Template.xlsx
+++ b/public/template/employee/Employee Master Data - Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\vueportal\public\template\employee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BC7D45-01D7-44A7-B55B-9C8E75ED0A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D6EDC4-3382-4240-BD05-5D278C5873ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="219" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>employee_code</t>
   </si>
@@ -72,9 +72,6 @@
     <t>sss_no</t>
   </si>
   <si>
-    <t>employee001</t>
-  </si>
-  <si>
     <t>birth_date</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>position</t>
   </si>
   <si>
-    <t>Inventory</t>
-  </si>
-  <si>
     <t>2013-10-27</t>
   </si>
   <si>
@@ -174,34 +168,16 @@
     <t>regularization_date</t>
   </si>
   <si>
-    <t>last_day_of_work</t>
-  </si>
-  <si>
-    <t>reason_of_resignation</t>
-  </si>
-  <si>
-    <t>coe_is_issued</t>
-  </si>
-  <si>
-    <t>last_pay_is_issued</t>
-  </si>
-  <si>
-    <t>compliance</t>
-  </si>
-  <si>
     <t>Probitionary</t>
   </si>
   <si>
     <t>2015-09-30</t>
   </si>
   <si>
-    <t>2020-06-15</t>
-  </si>
-  <si>
-    <t>To Work Abroad</t>
-  </si>
-  <si>
-    <t>Render 30 Days</t>
+    <t>Inventory &amp; Warehousing</t>
+  </si>
+  <si>
+    <t>employee002</t>
   </si>
 </sst>
 </file>
@@ -562,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,19 +566,14 @@
     <col min="22" max="22" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -614,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -626,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -635,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -656,134 +627,104 @@
         <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="U2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE2" s="2">
+      <c r="Z2" s="2">
         <v>1</v>
       </c>
     </row>

--- a/public/template/employee/Employee Master Data - Template.xlsx
+++ b/public/template/employee/Employee Master Data - Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\vueportal\public\template\employee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D6EDC4-3382-4240-BD05-5D278C5873ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5FA0CB-B89A-499E-B669-26A9AE8B7FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="219" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,6 +72,9 @@
     <t>sss_no</t>
   </si>
   <si>
+    <t>employee001</t>
+  </si>
+  <si>
     <t>birth_date</t>
   </si>
   <si>
@@ -175,9 +178,6 @@
   </si>
   <si>
     <t>Inventory &amp; Warehousing</t>
-  </si>
-  <si>
-    <t>employee002</t>
   </si>
 </sst>
 </file>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -597,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -606,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -627,102 +627,102 @@
         <v>14</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="Z2" s="2">
         <v>1</v>
